--- a/biology/Zoologie/Atelopus_pachydermus/Atelopus_pachydermus.xlsx
+++ b/biology/Zoologie/Atelopus_pachydermus/Atelopus_pachydermus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atelopus pachydermus est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atelopus pachydermus est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette se rencontre à environ 2 600 m d'altitude dans les Andes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette se rencontre à environ 2 600 m d'altitude dans les Andes :
 dans le nord du Pérou dans les régions de Cajamarca et d'Amazonas dans la cordillère Centrale et dans la Cordillère Occidentale
 dans le sud de l'Équateur dans la province de Zamora-Chinchipe dans la Cordillère Orientale</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Schmidt, 1857 : Diagnosen neuer frösche des zoologischen cabinets zu krakau. Sitzungberichte der Mathematisch-Naturwissenschaftlichen Classe der Kaiserlichen Akademie der Wissenschaften, vol. 24, p. 10–15 (texte intégral).</t>
         </is>
